--- a/result_analysis/RQ1_results_gr00t.xlsx
+++ b/result_analysis/RQ1_results_gr00t.xlsx
@@ -9405,7 +9405,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0.1622886852534148</v>
@@ -9444,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>0.3126941286276031</v>
@@ -9483,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0.1030007047797657</v>
@@ -9522,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>0.4852408871074312</v>
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>0.6567724223511187</v>
@@ -9600,7 +9600,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0.1561914210952776</v>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>0.3053337140986958</v>
@@ -9678,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>0.1160146271144185</v>
@@ -9717,7 +9717,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0.3125624903674478</v>
@@ -9756,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0.2747010557126101</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>0.1248481939158505</v>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>0.1979338984149475</v>
@@ -9873,7 +9873,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0.5814852432599341</v>
@@ -9912,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>0.1530072605711485</v>
@@ -9951,7 +9951,7 @@
         <v>1</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0.1586699999385038</v>
@@ -9990,7 +9990,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0.2030541585337729</v>
@@ -10029,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>0.07623217610995509</v>
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>0.2343392603600585</v>
@@ -10107,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>0.2220850457087424</v>
@@ -10146,7 +10146,7 @@
         <v>1</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0.1140904042068952</v>
@@ -10185,7 +10185,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0.1172249062810322</v>
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>0.1397542369132773</v>
@@ -10263,7 +10263,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0.1747363034746332</v>
@@ -10302,7 +10302,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0.08545494944423929</v>
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0.2084391845962238</v>
@@ -10380,7 +10380,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0.07578284959122854</v>
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0.08493635721972093</v>
@@ -10458,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>0.3931365746832995</v>
@@ -10497,7 +10497,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0.4962861206499948</v>
@@ -10536,7 +10536,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0.0916233100270505</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>0.1065872130531975</v>
@@ -10614,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>0.6891440617469387</v>
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>0.3300630492806834</v>
@@ -10692,7 +10692,7 @@
         <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0.1256615828675299</v>
@@ -10731,7 +10731,7 @@
         <v>1</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0.1710257010918513</v>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>0.1750533349651756</v>
@@ -10809,7 +10809,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0.2445020070486983</v>
@@ -10848,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>0.1687673538000698</v>
@@ -10887,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>0.1909741324505217</v>
@@ -10926,7 +10926,7 @@
         <v>1</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0.2347213539217785</v>
@@ -10965,7 +10965,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0.1124278769551981</v>
@@ -11004,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0.148629307810637</v>
@@ -11043,7 +11043,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0.2669599309971822</v>
@@ -11082,7 +11082,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0.4326436811938034</v>
@@ -11121,7 +11121,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0.7539351171498453</v>
@@ -11160,7 +11160,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0.07461004855109925</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>0.09553384068194612</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>0.06143499427920101</v>
@@ -11277,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0.5046499035434713</v>
@@ -11316,7 +11316,7 @@
         <v>1</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0.2506207541232471</v>
@@ -11355,7 +11355,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0.08345091524687699</v>
@@ -11394,7 +11394,7 @@
         <v>1</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0.1615451196164399</v>
@@ -11433,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0.258556330204002</v>
@@ -11472,7 +11472,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0.04075605681480703</v>
@@ -11511,7 +11511,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0.08383185236848616</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>0.05999485684740159</v>
@@ -11589,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>0.3203978334075894</v>
@@ -11628,7 +11628,7 @@
         <v>1</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0.08810762714422267</v>
@@ -11667,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0.2262542213291133</v>
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>0.1132499077329004</v>
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0.1088944595643569</v>
@@ -11784,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>0.3501689895137945</v>
@@ -11823,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>0.1873135721686166</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>0.3234051167119719</v>
@@ -11901,7 +11901,7 @@
         <v>1</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0.06527762965713135</v>
@@ -11940,7 +11940,7 @@
         <v>1</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0.1834577413253065</v>
@@ -11979,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>0.2860238302790205</v>
@@ -12018,7 +12018,7 @@
         <v>1</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0.3179413938664176</v>
@@ -12057,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>0.1319238382504414</v>
@@ -12096,7 +12096,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0.1348406402805437</v>
@@ -12135,7 +12135,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0.2522739797956033</v>
@@ -12174,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>0.2232783196750078</v>
@@ -12213,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>0.3563286628158314</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>0.1857381157434466</v>
@@ -12291,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0.2803779295535649</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>0.3220173708425716</v>
@@ -12369,7 +12369,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0.1260583470008688</v>
@@ -12408,7 +12408,7 @@
         <v>1</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0.3097150863508457</v>
@@ -12447,7 +12447,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>0.4744964700554717</v>
@@ -12486,7 +12486,7 @@
         <v>1</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0.06987499360814814</v>
@@ -12525,7 +12525,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>0.3045409454230374</v>
@@ -12564,7 +12564,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0.3791843147731908</v>
@@ -12603,7 +12603,7 @@
         <v>1</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0.349466946447606</v>
@@ -12642,7 +12642,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>0.4727350847873804</v>
@@ -12681,7 +12681,7 @@
         <v>1</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0.2354255918142474</v>
@@ -12720,7 +12720,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>0.2294022121871174</v>
@@ -12759,7 +12759,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>0.3316789012237688</v>
@@ -12798,7 +12798,7 @@
         <v>1</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0.3641058950892027</v>
@@ -12837,7 +12837,7 @@
         <v>1</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0.1162201708933795</v>
@@ -12876,7 +12876,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>0.2217939752355291</v>
@@ -12915,7 +12915,7 @@
         <v>1</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0.2531902721261814</v>
@@ -12954,7 +12954,7 @@
         <v>1</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0.4725197052849104</v>
@@ -12993,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0.07824427233136606</v>
@@ -13032,7 +13032,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0.1766334095219015</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>0.3176210324514131</v>
@@ -13110,7 +13110,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>0.3326605600093843</v>
@@ -13149,7 +13149,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>0.2462716310573349</v>
@@ -13188,7 +13188,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0.3087600460793009</v>
@@ -13227,7 +13227,7 @@
         <v>1</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0.1060983833758412</v>
@@ -13266,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0.1805044932637988</v>
@@ -13305,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>0.3586221029132155</v>
@@ -13344,7 +13344,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0.2504887083134868</v>
@@ -13383,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0.2334095027825741</v>
@@ -13422,7 +13422,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0.2772942749671163</v>
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>0.4006545145658168</v>
@@ -13500,7 +13500,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>0.4996713194171711</v>
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>0.5370531063269159</v>
@@ -13578,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>0.2659995735000664</v>
@@ -13617,7 +13617,7 @@
         <v>1</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0.4085853740819019</v>
@@ -13656,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0.1808660281925046</v>
@@ -13695,7 +13695,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0.44035073775669</v>
@@ -13734,7 +13734,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0.2597445598111334</v>
@@ -13773,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>0.3013585693334129</v>
@@ -13812,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>0.3263214148758631</v>
@@ -13851,7 +13851,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0.135659212485315</v>
@@ -13890,7 +13890,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>0.435333729954653</v>
@@ -13929,7 +13929,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0.492983785915922</v>
@@ -13968,7 +13968,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0.1247969645498435</v>
@@ -14007,7 +14007,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0.1423714873372608</v>
@@ -14046,7 +14046,7 @@
         <v>1</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0.4088019484872561</v>
@@ -14085,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>0.2525740344505193</v>
@@ -14124,7 +14124,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>0.2496671602153123</v>
@@ -14163,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>0.291408805920255</v>
@@ -14202,7 +14202,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0.2043079354948048</v>
@@ -14241,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0.1880586491614558</v>
@@ -14280,7 +14280,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0.1275081744696431</v>
@@ -14319,7 +14319,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0.2924727302017115</v>
@@ -14358,7 +14358,7 @@
         <v>1</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0.2076039727887671</v>
@@ -14397,7 +14397,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>0.5761892662182061</v>
@@ -14436,7 +14436,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>0.2364881554067642</v>
@@ -14475,7 +14475,7 @@
         <v>1</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0.2930895702726927</v>
@@ -14514,7 +14514,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>0.4389657432931928</v>
@@ -14553,7 +14553,7 @@
         <v>1</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0.0996144014831034</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>0.2929551518143568</v>
@@ -14631,7 +14631,7 @@
         <v>1</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0.08014493468192263</v>
@@ -14670,7 +14670,7 @@
         <v>1</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0.1895522787147308</v>
@@ -14709,7 +14709,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0.2087632079142581</v>
@@ -14748,7 +14748,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0.2289803196169937</v>
@@ -14787,7 +14787,7 @@
         <v>1</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0.38626994857823</v>
@@ -14826,7 +14826,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0.1258904602243106</v>
@@ -14865,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>0.1735839112494262</v>
@@ -14904,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>0.1913371790480327</v>
@@ -14943,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>0.1775149351109948</v>
@@ -14982,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0.2170661053307662</v>
@@ -15021,7 +15021,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0.1902867016376937</v>
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>0.2038104352560614</v>
@@ -15099,7 +15099,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0.4136081758630491</v>
@@ -15138,7 +15138,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>0.3279723735701289</v>
@@ -15177,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0.1150951632478847</v>
@@ -15216,7 +15216,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0.2665227253050957</v>
@@ -15255,7 +15255,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>0.2516623699899083</v>
@@ -15294,7 +15294,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0.3394048288191256</v>
@@ -15333,7 +15333,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0.1562710186413717</v>
@@ -15372,7 +15372,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>0.179643613177963</v>
@@ -15411,7 +15411,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>0.3158001839107091</v>
@@ -15450,7 +15450,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0.2745115281453044</v>
@@ -15489,7 +15489,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I386" t="n">
         <v>0.2001192435094714</v>
@@ -15528,7 +15528,7 @@
         <v>1</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0.122073815527199</v>
@@ -15567,7 +15567,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I388" t="n">
         <v>0.2303347828353359</v>
@@ -15606,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>0.3370886917578579</v>
@@ -15645,7 +15645,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>0.3577240166629108</v>
@@ -15684,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>0.66752291621469</v>
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0.07432854391191231</v>
@@ -15762,7 +15762,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0.1312677283516773</v>
@@ -15801,7 +15801,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0.3253922621457109</v>
@@ -15840,7 +15840,7 @@
         <v>1</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0.1625025021470577</v>
@@ -15879,7 +15879,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0.2067433707498544</v>
@@ -15918,7 +15918,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0.2567262243174779</v>
@@ -15957,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0.2713565293026698</v>
@@ -15996,7 +15996,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0.2151187955693803</v>
@@ -16035,7 +16035,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>0.2783126952359939</v>
@@ -16074,7 +16074,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0.1646507254712321</v>
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>0.3307630881548832</v>
@@ -16152,7 +16152,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>0.2524395145008766</v>
@@ -16191,7 +16191,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0.1541876586314696</v>
@@ -16230,7 +16230,7 @@
         <v>1</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0.1919055349294687</v>
@@ -16269,7 +16269,7 @@
         <v>1</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0.09743463550529141</v>
@@ -16308,7 +16308,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0.3414293769867996</v>
@@ -16347,7 +16347,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>0.2048919630828415</v>
@@ -16386,7 +16386,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0.1455443036868919</v>
@@ -16425,7 +16425,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0.3393034248564932</v>
@@ -16464,7 +16464,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>0.3749641165385073</v>
@@ -16503,7 +16503,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0.09313148575652626</v>
@@ -16542,7 +16542,7 @@
         <v>1</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0.394504414826457</v>
@@ -16581,7 +16581,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0.1133608251795555</v>
@@ -16620,7 +16620,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0.1774170630991194</v>
@@ -16659,7 +16659,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0.1723358938353746</v>
@@ -16698,7 +16698,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>0.3528184253764085</v>
@@ -16737,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0.2066488852764262</v>
@@ -16776,7 +16776,7 @@
         <v>1</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0.2324371744918273</v>
@@ -16815,7 +16815,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0.1374137033884403</v>
@@ -16854,7 +16854,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0.303428057480582</v>
@@ -16893,7 +16893,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0.8530921716551558</v>
@@ -16932,7 +16932,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>0.4251270029038989</v>
@@ -16971,7 +16971,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>0.4238973267520609</v>
@@ -17010,7 +17010,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>0.7085535852075319</v>
@@ -17049,7 +17049,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>0.2164998802104939</v>
@@ -17088,7 +17088,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>0.3856375580222043</v>
@@ -17127,7 +17127,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0.1830087766704696</v>
@@ -17166,7 +17166,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>0.09955603182862197</v>
@@ -17205,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>0.09652042171882858</v>
@@ -17244,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>0.245786460430041</v>
@@ -17283,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>0.1935233869849679</v>
@@ -17322,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>0.1426980754137864</v>
@@ -17361,7 +17361,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>0.5492963001484471</v>
@@ -17400,7 +17400,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>0.4527890067376997</v>
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>1.105784783923746</v>
@@ -17478,7 +17478,7 @@
         <v>1</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0.13416290097939</v>
@@ -17517,7 +17517,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0.7880032780403146</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>1.006327691449078</v>
@@ -17595,7 +17595,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>0.4321345641316745</v>
@@ -17634,7 +17634,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0.4967946384749481</v>
@@ -17673,7 +17673,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>0.2807491897018468</v>
@@ -17712,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>0.3835544056817525</v>
@@ -17751,7 +17751,7 @@
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>0.7464896101909843</v>
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>0.2989699164338609</v>
@@ -17829,7 +17829,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
         <v>0.05010541012203329</v>
@@ -17868,7 +17868,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>0.7667234767711372</v>
@@ -17907,7 +17907,7 @@
         <v>1</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0.3447442921700283</v>
@@ -17946,7 +17946,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>0.1239097623586731</v>
@@ -17985,7 +17985,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>0.1821402190467384</v>
@@ -18024,7 +18024,7 @@
         <v>1</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0.2315380218782772</v>
@@ -18063,7 +18063,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0.1290373495911394</v>
@@ -18102,7 +18102,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0.4418423450582601</v>
@@ -18141,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0.3266006683724759</v>
@@ -18180,7 +18180,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>0.4896763190609783</v>
@@ -18219,7 +18219,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>0.3639219523142969</v>
@@ -18258,7 +18258,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0.1336242700462645</v>
